--- a/biology/Zoologie/Apatura/Apatura.xlsx
+++ b/biology/Zoologie/Apatura/Apatura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apatura est un genre de lépidoptères (papillons) appelés Mars en français (emperors en anglais), appartenant à la famille des Nymphalidae et à la sous-famille des Apaturinae.
 </t>
@@ -511,13 +523,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Apatura a été décrit par l'entomologiste danois Johan Christian Fabricius en 1807[1],[2]. L'espèce type pour le genre est Papilio iris Linnaeus, 1758.
-Synonymie[2] :
-Potamis Hübner, [1806] — nom rejeté
-Aeola Billberg, 1820[3]
-Apaturia Sodoffsky, 1837[4] — émendation injustifiée
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Apatura a été décrit par l'entomologiste danois Johan Christian Fabricius en 1807,. L'espèce type pour le genre est Papilio iris Linnaeus, 1758.
+Synonymie :
+Potamis Hübner,  — nom rejeté
+Aeola Billberg, 1820
+Apaturia Sodoffsky, 1837 — émendation injustifiée
 Mars Girard, 1866</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Liste des espèces[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Apatura ilia ([Denis &amp; Schiffermüller], 1775) — le Petit mars changeant — de l'Europe de l'Ouest au Japon
 Apatura iris (Linnaeus, 1758) — le Grand mars changeant — de l'Europe de l'Ouest au Japon
@@ -554,8 +570,43 @@
 Apatura laverna Leech, 1893 — Chine
 			Apatura ilia – coll. MHNT
 			Apatura iris – coll. MHNT
-Espèces européennes
-Trois espèces sont présentes en Europe : le Petit mars changeant, le Grand mars changeant et le Mars danubien, tous sylvicoles. Ils ont une plante hôte en commun, Salix alba, et d'autres plantes hôtes dans les genres Salix et Populus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apatura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apatura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces[2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois espèces sont présentes en Europe : le Petit mars changeant, le Grand mars changeant et le Mars danubien, tous sylvicoles. Ils ont une plante hôte en commun, Salix alba, et d'autres plantes hôtes dans les genres Salix et Populus.
 </t>
         </is>
       </c>
